--- a/Test1结果.xlsx
+++ b/Test1结果.xlsx
@@ -414,6 +414,1174 @@
 </chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>2</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <v>8</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'潘立文分析'!$A$3:$A$38</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'潘立文分析'!$K$3:$K$38</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <v>9</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'潘立文分析'!$A$3:$A$38</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'潘立文分析'!$L$3:$L$38</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <v>22</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'潘立文分析'!$A$3:$A$38</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'潘立文分析'!$Z$3:$Z$38</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>3</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <v>2</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'潘立文分析'!$A$3:$A$38</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'潘立文分析'!$E$3:$E$38</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <v>5</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'潘立文分析'!$A$3:$A$38</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'潘立文分析'!$H$3:$H$38</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <v>9</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'潘立文分析'!$A$3:$A$38</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'潘立文分析'!$L$3:$L$38</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <v>22</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'潘立文分析'!$A$3:$A$38</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'潘立文分析'!$Z$3:$Z$38</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>4</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <v>5</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'潘立文分析'!$A$3:$A$38</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'潘立文分析'!$H$3:$H$38</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <v>8</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'潘立文分析'!$A$3:$A$38</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'潘立文分析'!$K$3:$K$38</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <v>22</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'潘立文分析'!$A$3:$A$38</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'潘立文分析'!$Z$3:$Z$38</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>5</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <v>10</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'潘立文分析'!$A$3:$A$38</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'潘立文分析'!$M$3:$M$38</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <v>11</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'潘立文分析'!$A$3:$A$38</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'潘立文分析'!$N$3:$N$38</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>6</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <v>3</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'潘立文分析'!$A$3:$A$38</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'潘立文分析'!$F$3:$F$38</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <v>4</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'潘立文分析'!$A$3:$A$38</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'潘立文分析'!$G$3:$G$38</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <v>6</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'潘立文分析'!$A$3:$A$38</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'潘立文分析'!$I$3:$I$38</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <v>7</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'潘立文分析'!$A$3:$A$38</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'潘立文分析'!$J$3:$J$38</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>7</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <v>12</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'潘立文分析'!$A$3:$A$38</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'潘立文分析'!$P$3:$P$38</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <v>15</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'潘立文分析'!$A$3:$A$38</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'潘立文分析'!$S$3:$S$38</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <v>16</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'潘立文分析'!$A$3:$A$38</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'潘立文分析'!$T$3:$T$38</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>8</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <v>19</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'潘立文分析'!$A$3:$A$38</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'潘立文分析'!$W$3:$W$38</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <v>20</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'潘立文分析'!$A$3:$A$38</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'潘立文分析'!$X$3:$X$38</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <v>21</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'潘立文分析'!$A$3:$A$38</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'潘立文分析'!$Y$3:$Y$38</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>9</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <v>3</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'潘立文分析'!$A$3:$A$38</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'潘立文分析'!$F$3:$F$38</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <v>23</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'潘立文分析'!$A$3:$A$38</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'潘立文分析'!$AA$3:$AA$38</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
@@ -433,6 +1601,182 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>8</col>
+      <colOff>0</colOff>
+      <row>73</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="2" name="Chart 2"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>15</col>
+      <colOff>0</colOff>
+      <row>73</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="3" name="Chart 3"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>23</col>
+      <colOff>0</colOff>
+      <row>73</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="4" name="Chart 4"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>87</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="5" name="Chart 5"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>8</col>
+      <colOff>0</colOff>
+      <row>87</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="6" name="Chart 6"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>15</col>
+      <colOff>0</colOff>
+      <row>87</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="7" name="Chart 7"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>23</col>
+      <colOff>0</colOff>
+      <row>87</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="8" name="Chart 8"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>101</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="9" name="Chart 9"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
